--- a/input/TableA.xlsx
+++ b/input/TableA.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahui/Downloads/KKTIX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rick\jupyter\Fix_DCADE_Output\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="14740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4768" uniqueCount="1237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5473" uniqueCount="1307">
   <si>
     <t>Content</t>
   </si>
@@ -3741,13 +3742,223 @@
   </si>
   <si>
     <t>Density: 0.9441441441441442</t>
+  </si>
+  <si>
+    <t>0-0-0</t>
+  </si>
+  <si>
+    <t>0-0-1</t>
+  </si>
+  <si>
+    <t>0-0-2</t>
+  </si>
+  <si>
+    <t>0-0-3</t>
+  </si>
+  <si>
+    <t>0-0-4</t>
+  </si>
+  <si>
+    <t>0-0-5</t>
+  </si>
+  <si>
+    <t>0-0-6</t>
+  </si>
+  <si>
+    <t>0-0-7</t>
+  </si>
+  <si>
+    <t>0-0-8</t>
+  </si>
+  <si>
+    <t>0-0-9</t>
+  </si>
+  <si>
+    <t>0-0-10</t>
+  </si>
+  <si>
+    <t>0-0-11</t>
+  </si>
+  <si>
+    <t>1-0-0</t>
+  </si>
+  <si>
+    <t>1-0-11</t>
+  </si>
+  <si>
+    <t>2-0-11</t>
+  </si>
+  <si>
+    <t>3-0-11</t>
+  </si>
+  <si>
+    <t>4-0-11</t>
+  </si>
+  <si>
+    <t>1-0-1</t>
+  </si>
+  <si>
+    <t>1-0-2</t>
+  </si>
+  <si>
+    <t>1-0-3</t>
+  </si>
+  <si>
+    <t>1-0-4</t>
+  </si>
+  <si>
+    <t>1-0-5</t>
+  </si>
+  <si>
+    <t>1-0-6</t>
+  </si>
+  <si>
+    <t>1-0-7</t>
+  </si>
+  <si>
+    <t>1-0-8</t>
+  </si>
+  <si>
+    <t>1-0-9</t>
+  </si>
+  <si>
+    <t>1-0-10</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>2-0-1</t>
+  </si>
+  <si>
+    <t>2-0-2</t>
+  </si>
+  <si>
+    <t>2-0-3</t>
+  </si>
+  <si>
+    <t>2-0-4</t>
+  </si>
+  <si>
+    <t>2-0-5</t>
+  </si>
+  <si>
+    <t>2-0-6</t>
+  </si>
+  <si>
+    <t>2-0-7</t>
+  </si>
+  <si>
+    <t>2-0-8</t>
+  </si>
+  <si>
+    <t>2-0-9</t>
+  </si>
+  <si>
+    <t>2-0-10</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>3-0-1</t>
+  </si>
+  <si>
+    <t>3-0-2</t>
+  </si>
+  <si>
+    <t>3-0-3</t>
+  </si>
+  <si>
+    <t>3-0-4</t>
+  </si>
+  <si>
+    <t>3-0-5</t>
+  </si>
+  <si>
+    <t>3-0-6</t>
+  </si>
+  <si>
+    <t>3-0-7</t>
+  </si>
+  <si>
+    <t>3-0-8</t>
+  </si>
+  <si>
+    <t>3-0-9</t>
+  </si>
+  <si>
+    <t>3-0-10</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>4-0-1</t>
+  </si>
+  <si>
+    <t>4-0-2</t>
+  </si>
+  <si>
+    <t>4-0-3</t>
+  </si>
+  <si>
+    <t>4-0-4</t>
+  </si>
+  <si>
+    <t>4-0-5</t>
+  </si>
+  <si>
+    <t>4-0-6</t>
+  </si>
+  <si>
+    <t>4-0-7</t>
+  </si>
+  <si>
+    <t>4-0-8</t>
+  </si>
+  <si>
+    <t>4-0-9</t>
+  </si>
+  <si>
+    <t>4-0-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?戀愛大學? 2020年【戀愛大學1月份課表特輯】熱烈報名ing! :: 182 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">結合相同興趣與理念，以終生學習為目標，我們這群銀髮族經由梁玉璨老師的?蒙引導，從基礎、初階、進階逐步認識粉彩藝術的奧妙與賞圖的訣竅。歷經5年學習，凝聚對藝術的愛好與向心力，延續我們學習的動力與生命力。 :: 193 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?戀愛大學? 【密室逃脫，脫單密事】1/5(日)、2/1(六) :: 170 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">看?也愛看花絮NG？！ 看美劇，不懂找隱藏版的潛台詞怎麼可以？！ 跟著在美國生活30年的Allen老師說英語 可以~~ 你真的很可以！ Yes You Can! :: 181 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">看?也愛看花絮NG？！ 看美劇，不懂找隱藏版的潛台詞怎麼可以？！ 跟著在美國生活30年的Allen老師說英語 可以~~ 你真的很可以！ Yes You Can! :: 191 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三個月前端開發實戰課程?? 企劃??設計??程式??專案執行?? 政府補助最高達100%?? 年後快來提升自己薪水吧?? 名額有限把握機會?? ??上課時間：109/02/24~109/05/22 :: 221 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?戀愛大學?【為愛而攀，幸福相遇】 1/4(六)、2/9(日) :: 230 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">美國領導幼兒音樂系統Music Together? 讓孩子與家人都能在日常生活中，快樂地享受歌曲、節奏、律動與樂器演奏帶來的樂趣，邀請您一同在美好的早晨，來IKEA新店店與孩子一同開心享玩音樂。 :: 163 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?戀愛大學? 12/29(日)、1/19(日)、2/22(六)【舊城情識-大稻埕深度輕旅】 :: 172 :: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?戀愛大學? 【不只喝咖啡】2/2(日) （額滿）、4/11 (六) :: 235 :: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3779,6 +3990,13 @@
       <sz val="11"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4101,14 +4319,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="17" topLeftCell="ES18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="HW14" sqref="HW14"/>
+    <sheetView topLeftCell="EE1" workbookViewId="0">
+      <selection activeCell="EJ4" sqref="EJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
@@ -4131,7 +4346,7 @@
     <col min="269" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5066,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -5372,7 +5587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -6307,7 +6522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
@@ -7242,7 +7457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>130</v>
       </c>
@@ -8177,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -9112,7 +9327,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
@@ -10047,7 +10262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>161</v>
       </c>
@@ -10982,7 +11197,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -11917,7 +12132,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>336</v>
       </c>
@@ -12852,7 +13067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>337</v>
       </c>
@@ -13787,7 +14002,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="12" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
@@ -14722,7 +14937,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
@@ -15657,7 +15872,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="14" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>144</v>
       </c>
@@ -16592,7 +16807,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="15" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -17527,7 +17742,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="16" spans="1:311" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:311" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
@@ -18462,17 +18677,17 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1236</v>
       </c>
@@ -18480,5 +18695,2257 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" t="s">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H3" t="s">
+        <v>509</v>
+      </c>
+      <c r="I3" t="s">
+        <v>510</v>
+      </c>
+      <c r="J3" t="s">
+        <v>511</v>
+      </c>
+      <c r="K3" t="s">
+        <v>512</v>
+      </c>
+      <c r="L3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I4" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K4" t="s">
+        <v>523</v>
+      </c>
+      <c r="L4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" t="s">
+        <v>532</v>
+      </c>
+      <c r="K5" t="s">
+        <v>533</v>
+      </c>
+      <c r="L5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>540</v>
+      </c>
+      <c r="I6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" t="s">
+        <v>542</v>
+      </c>
+      <c r="K6" t="s">
+        <v>543</v>
+      </c>
+      <c r="L6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" t="s">
+        <v>547</v>
+      </c>
+      <c r="E7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>550</v>
+      </c>
+      <c r="I7" t="s">
+        <v>551</v>
+      </c>
+      <c r="J7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>560</v>
+      </c>
+      <c r="I8" t="s">
+        <v>561</v>
+      </c>
+      <c r="J8" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" t="s">
+        <v>563</v>
+      </c>
+      <c r="L8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" t="s">
+        <v>572</v>
+      </c>
+      <c r="K9" t="s">
+        <v>573</v>
+      </c>
+      <c r="L9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" t="s">
+        <v>581</v>
+      </c>
+      <c r="I10" t="s">
+        <v>582</v>
+      </c>
+      <c r="J10" t="s">
+        <v>583</v>
+      </c>
+      <c r="K10" t="s">
+        <v>584</v>
+      </c>
+      <c r="L10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F11" t="s">
+        <v>590</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J11" t="s">
+        <v>593</v>
+      </c>
+      <c r="K11" t="s">
+        <v>594</v>
+      </c>
+      <c r="L11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F12" t="s">
+        <v>599</v>
+      </c>
+      <c r="G12" t="s">
+        <v>600</v>
+      </c>
+      <c r="H12" t="s">
+        <v>601</v>
+      </c>
+      <c r="I12" t="s">
+        <v>602</v>
+      </c>
+      <c r="J12" t="s">
+        <v>603</v>
+      </c>
+      <c r="K12" t="s">
+        <v>604</v>
+      </c>
+      <c r="L12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" t="s">
+        <v>654</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>655</v>
+      </c>
+      <c r="I13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J13" t="s">
+        <v>657</v>
+      </c>
+      <c r="K13" t="s">
+        <v>658</v>
+      </c>
+      <c r="L13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E14" t="s">
+        <v>663</v>
+      </c>
+      <c r="G14" t="s">
+        <v>664</v>
+      </c>
+      <c r="H14" t="s">
+        <v>665</v>
+      </c>
+      <c r="I14" t="s">
+        <v>666</v>
+      </c>
+      <c r="J14" t="s">
+        <v>667</v>
+      </c>
+      <c r="K14" t="s">
+        <v>668</v>
+      </c>
+      <c r="L14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" t="s">
+        <v>672</v>
+      </c>
+      <c r="E15" t="s">
+        <v>673</v>
+      </c>
+      <c r="F15" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>675</v>
+      </c>
+      <c r="I15" t="s">
+        <v>676</v>
+      </c>
+      <c r="J15" t="s">
+        <v>677</v>
+      </c>
+      <c r="K15" t="s">
+        <v>678</v>
+      </c>
+      <c r="L15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D16" t="s">
+        <v>682</v>
+      </c>
+      <c r="E16" t="s">
+        <v>683</v>
+      </c>
+      <c r="F16" t="s">
+        <v>684</v>
+      </c>
+      <c r="G16" t="s">
+        <v>685</v>
+      </c>
+      <c r="H16" t="s">
+        <v>686</v>
+      </c>
+      <c r="I16" t="s">
+        <v>687</v>
+      </c>
+      <c r="J16" t="s">
+        <v>688</v>
+      </c>
+      <c r="K16" t="s">
+        <v>689</v>
+      </c>
+      <c r="L16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D17" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F17" t="s">
+        <v>695</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>696</v>
+      </c>
+      <c r="I17" t="s">
+        <v>697</v>
+      </c>
+      <c r="J17" t="s">
+        <v>698</v>
+      </c>
+      <c r="K17" t="s">
+        <v>699</v>
+      </c>
+      <c r="L17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D18" t="s">
+        <v>703</v>
+      </c>
+      <c r="E18" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G18" t="s">
+        <v>706</v>
+      </c>
+      <c r="H18" t="s">
+        <v>707</v>
+      </c>
+      <c r="I18" t="s">
+        <v>708</v>
+      </c>
+      <c r="J18" t="s">
+        <v>709</v>
+      </c>
+      <c r="K18" t="s">
+        <v>710</v>
+      </c>
+      <c r="L18" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" t="s">
+        <v>714</v>
+      </c>
+      <c r="E19" t="s">
+        <v>715</v>
+      </c>
+      <c r="F19" t="s">
+        <v>716</v>
+      </c>
+      <c r="G19" t="s">
+        <v>717</v>
+      </c>
+      <c r="H19" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" t="s">
+        <v>719</v>
+      </c>
+      <c r="J19" t="s">
+        <v>720</v>
+      </c>
+      <c r="K19" t="s">
+        <v>721</v>
+      </c>
+      <c r="L19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C20" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E20" t="s">
+        <v>726</v>
+      </c>
+      <c r="F20" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" t="s">
+        <v>729</v>
+      </c>
+      <c r="I20" t="s">
+        <v>561</v>
+      </c>
+      <c r="J20" t="s">
+        <v>730</v>
+      </c>
+      <c r="K20" t="s">
+        <v>563</v>
+      </c>
+      <c r="L20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C21" t="s">
+        <v>732</v>
+      </c>
+      <c r="D21" t="s">
+        <v>733</v>
+      </c>
+      <c r="E21" t="s">
+        <v>734</v>
+      </c>
+      <c r="G21" t="s">
+        <v>735</v>
+      </c>
+      <c r="H21" t="s">
+        <v>736</v>
+      </c>
+      <c r="I21" t="s">
+        <v>737</v>
+      </c>
+      <c r="J21" t="s">
+        <v>738</v>
+      </c>
+      <c r="K21" t="s">
+        <v>739</v>
+      </c>
+      <c r="L21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B22" t="s">
+        <v>741</v>
+      </c>
+      <c r="C22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" t="s">
+        <v>744</v>
+      </c>
+      <c r="F22" t="s">
+        <v>745</v>
+      </c>
+      <c r="G22" t="s">
+        <v>746</v>
+      </c>
+      <c r="H22" t="s">
+        <v>747</v>
+      </c>
+      <c r="I22" t="s">
+        <v>748</v>
+      </c>
+      <c r="J22" t="s">
+        <v>749</v>
+      </c>
+      <c r="K22" t="s">
+        <v>750</v>
+      </c>
+      <c r="L22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B23" t="s">
+        <v>752</v>
+      </c>
+      <c r="C23" t="s">
+        <v>753</v>
+      </c>
+      <c r="D23" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F23" t="s">
+        <v>756</v>
+      </c>
+      <c r="G23" t="s">
+        <v>757</v>
+      </c>
+      <c r="H23" t="s">
+        <v>758</v>
+      </c>
+      <c r="I23" t="s">
+        <v>759</v>
+      </c>
+      <c r="J23" t="s">
+        <v>760</v>
+      </c>
+      <c r="K23" t="s">
+        <v>761</v>
+      </c>
+      <c r="L23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>763</v>
+      </c>
+      <c r="C24" t="s">
+        <v>764</v>
+      </c>
+      <c r="D24" t="s">
+        <v>765</v>
+      </c>
+      <c r="F24" t="s">
+        <v>766</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>767</v>
+      </c>
+      <c r="I24" t="s">
+        <v>768</v>
+      </c>
+      <c r="J24" t="s">
+        <v>769</v>
+      </c>
+      <c r="K24" t="s">
+        <v>770</v>
+      </c>
+      <c r="L24" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>818</v>
+      </c>
+      <c r="C25" t="s">
+        <v>819</v>
+      </c>
+      <c r="D25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E25" t="s">
+        <v>820</v>
+      </c>
+      <c r="F25" t="s">
+        <v>821</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>822</v>
+      </c>
+      <c r="I25" t="s">
+        <v>656</v>
+      </c>
+      <c r="J25" t="s">
+        <v>823</v>
+      </c>
+      <c r="K25" t="s">
+        <v>658</v>
+      </c>
+      <c r="L25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>824</v>
+      </c>
+      <c r="C26" t="s">
+        <v>825</v>
+      </c>
+      <c r="D26" t="s">
+        <v>826</v>
+      </c>
+      <c r="E26" t="s">
+        <v>827</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>828</v>
+      </c>
+      <c r="I26" t="s">
+        <v>829</v>
+      </c>
+      <c r="J26" t="s">
+        <v>830</v>
+      </c>
+      <c r="K26" t="s">
+        <v>831</v>
+      </c>
+      <c r="L26" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B27" t="s">
+        <v>833</v>
+      </c>
+      <c r="C27" t="s">
+        <v>834</v>
+      </c>
+      <c r="D27" t="s">
+        <v>835</v>
+      </c>
+      <c r="E27" t="s">
+        <v>836</v>
+      </c>
+      <c r="F27" t="s">
+        <v>837</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I27" t="s">
+        <v>839</v>
+      </c>
+      <c r="J27" t="s">
+        <v>840</v>
+      </c>
+      <c r="K27" t="s">
+        <v>841</v>
+      </c>
+      <c r="L27" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>843</v>
+      </c>
+      <c r="C28" t="s">
+        <v>844</v>
+      </c>
+      <c r="D28" t="s">
+        <v>845</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F28" t="s">
+        <v>847</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>848</v>
+      </c>
+      <c r="I28" t="s">
+        <v>849</v>
+      </c>
+      <c r="J28" t="s">
+        <v>850</v>
+      </c>
+      <c r="K28" t="s">
+        <v>851</v>
+      </c>
+      <c r="L28" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>853</v>
+      </c>
+      <c r="C29" t="s">
+        <v>854</v>
+      </c>
+      <c r="D29" t="s">
+        <v>855</v>
+      </c>
+      <c r="E29" t="s">
+        <v>856</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>858</v>
+      </c>
+      <c r="I29" t="s">
+        <v>859</v>
+      </c>
+      <c r="J29" t="s">
+        <v>860</v>
+      </c>
+      <c r="K29" t="s">
+        <v>861</v>
+      </c>
+      <c r="L29" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B30" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" t="s">
+        <v>864</v>
+      </c>
+      <c r="D30" t="s">
+        <v>865</v>
+      </c>
+      <c r="E30" t="s">
+        <v>866</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>868</v>
+      </c>
+      <c r="I30" t="s">
+        <v>869</v>
+      </c>
+      <c r="J30" t="s">
+        <v>870</v>
+      </c>
+      <c r="K30" t="s">
+        <v>871</v>
+      </c>
+      <c r="L30" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>873</v>
+      </c>
+      <c r="C31" t="s">
+        <v>874</v>
+      </c>
+      <c r="D31" t="s">
+        <v>875</v>
+      </c>
+      <c r="E31" t="s">
+        <v>876</v>
+      </c>
+      <c r="F31" t="s">
+        <v>877</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>878</v>
+      </c>
+      <c r="I31" t="s">
+        <v>879</v>
+      </c>
+      <c r="J31" t="s">
+        <v>880</v>
+      </c>
+      <c r="K31" t="s">
+        <v>881</v>
+      </c>
+      <c r="L31" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>883</v>
+      </c>
+      <c r="C32" t="s">
+        <v>884</v>
+      </c>
+      <c r="D32" t="s">
+        <v>885</v>
+      </c>
+      <c r="E32" t="s">
+        <v>886</v>
+      </c>
+      <c r="F32" t="s">
+        <v>887</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>888</v>
+      </c>
+      <c r="I32" t="s">
+        <v>889</v>
+      </c>
+      <c r="J32" t="s">
+        <v>890</v>
+      </c>
+      <c r="K32" t="s">
+        <v>891</v>
+      </c>
+      <c r="L32" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B33" t="s">
+        <v>893</v>
+      </c>
+      <c r="C33" t="s">
+        <v>894</v>
+      </c>
+      <c r="D33" t="s">
+        <v>895</v>
+      </c>
+      <c r="E33" t="s">
+        <v>896</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H33" t="s">
+        <v>898</v>
+      </c>
+      <c r="I33" t="s">
+        <v>899</v>
+      </c>
+      <c r="J33" t="s">
+        <v>900</v>
+      </c>
+      <c r="K33" t="s">
+        <v>901</v>
+      </c>
+      <c r="L33" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B34" t="s">
+        <v>903</v>
+      </c>
+      <c r="C34" t="s">
+        <v>904</v>
+      </c>
+      <c r="D34" t="s">
+        <v>905</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F34" t="s">
+        <v>907</v>
+      </c>
+      <c r="G34" t="s">
+        <v>908</v>
+      </c>
+      <c r="H34" t="s">
+        <v>909</v>
+      </c>
+      <c r="I34" t="s">
+        <v>910</v>
+      </c>
+      <c r="J34" t="s">
+        <v>911</v>
+      </c>
+      <c r="K34" t="s">
+        <v>912</v>
+      </c>
+      <c r="L34" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B35" t="s">
+        <v>914</v>
+      </c>
+      <c r="C35" t="s">
+        <v>915</v>
+      </c>
+      <c r="D35" t="s">
+        <v>916</v>
+      </c>
+      <c r="E35" t="s">
+        <v>917</v>
+      </c>
+      <c r="F35" t="s">
+        <v>918</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>919</v>
+      </c>
+      <c r="I35" t="s">
+        <v>920</v>
+      </c>
+      <c r="J35" t="s">
+        <v>921</v>
+      </c>
+      <c r="K35" t="s">
+        <v>922</v>
+      </c>
+      <c r="L35" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>924</v>
+      </c>
+      <c r="C36" t="s">
+        <v>925</v>
+      </c>
+      <c r="D36" t="s">
+        <v>926</v>
+      </c>
+      <c r="F36" t="s">
+        <v>927</v>
+      </c>
+      <c r="G36" t="s">
+        <v>928</v>
+      </c>
+      <c r="H36" t="s">
+        <v>929</v>
+      </c>
+      <c r="I36" t="s">
+        <v>930</v>
+      </c>
+      <c r="J36" t="s">
+        <v>931</v>
+      </c>
+      <c r="K36" t="s">
+        <v>932</v>
+      </c>
+      <c r="L36" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>980</v>
+      </c>
+      <c r="C37" t="s">
+        <v>981</v>
+      </c>
+      <c r="D37" t="s">
+        <v>982</v>
+      </c>
+      <c r="E37" t="s">
+        <v>983</v>
+      </c>
+      <c r="F37" t="s">
+        <v>984</v>
+      </c>
+      <c r="G37" t="s">
+        <v>985</v>
+      </c>
+      <c r="H37" t="s">
+        <v>986</v>
+      </c>
+      <c r="I37" t="s">
+        <v>489</v>
+      </c>
+      <c r="J37" t="s">
+        <v>987</v>
+      </c>
+      <c r="K37" t="s">
+        <v>491</v>
+      </c>
+      <c r="L37" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>988</v>
+      </c>
+      <c r="C38" t="s">
+        <v>989</v>
+      </c>
+      <c r="D38" t="s">
+        <v>990</v>
+      </c>
+      <c r="E38" t="s">
+        <v>991</v>
+      </c>
+      <c r="G38" t="s">
+        <v>992</v>
+      </c>
+      <c r="H38" t="s">
+        <v>993</v>
+      </c>
+      <c r="I38" t="s">
+        <v>994</v>
+      </c>
+      <c r="J38" t="s">
+        <v>995</v>
+      </c>
+      <c r="K38" t="s">
+        <v>996</v>
+      </c>
+      <c r="L38" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" t="s">
+        <v>999</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I42" t="s">
+        <v>541</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K42" t="s">
+        <v>543</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I43" t="s">
+        <v>551</v>
+      </c>
+      <c r="J43" t="s">
+        <v>552</v>
+      </c>
+      <c r="K43" t="s">
+        <v>553</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I44" t="s">
+        <v>561</v>
+      </c>
+      <c r="J44" t="s">
+        <v>730</v>
+      </c>
+      <c r="K44" t="s">
+        <v>563</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I45" t="s">
+        <v>571</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K45" t="s">
+        <v>573</v>
+      </c>
+      <c r="L45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I46" t="s">
+        <v>582</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K46" t="s">
+        <v>584</v>
+      </c>
+      <c r="L46" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D47" t="s">
+        <v>588</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I47" t="s">
+        <v>592</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K47" t="s">
+        <v>594</v>
+      </c>
+      <c r="L47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I48" t="s">
+        <v>602</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K48" t="s">
+        <v>604</v>
+      </c>
+      <c r="L48" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D49" t="s">
+        <v>484</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I49" t="s">
+        <v>656</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>658</v>
+      </c>
+      <c r="L49" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I50" t="s">
+        <v>994</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K50" t="s">
+        <v>996</v>
+      </c>
+      <c r="L50" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>686</v>
+      </c>
+      <c r="I52" t="s">
+        <v>687</v>
+      </c>
+      <c r="J52" t="s">
+        <v>688</v>
+      </c>
+      <c r="K52" t="s">
+        <v>689</v>
+      </c>
+      <c r="L52" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I53" t="s">
+        <v>697</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K53" t="s">
+        <v>699</v>
+      </c>
+      <c r="L53" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/TableA.xlsx
+++ b/input/TableA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="14740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="12520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4319,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KY19"/>
   <sheetViews>
-    <sheetView topLeftCell="EE1" workbookViewId="0">
-      <selection activeCell="EJ4" sqref="EJ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -18703,8 +18703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/input/TableA.xlsx
+++ b/input/TableA.xlsx
@@ -4026,7 +4026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -4037,6 +4037,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4320,7 +4323,7 @@
   <dimension ref="A1:KY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="EY7" sqref="EY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -18703,11 +18706,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -18725,7 +18732,7 @@
       <c r="E1" t="s">
         <v>485</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>486</v>
       </c>
       <c r="G1" t="s">
@@ -18763,7 +18770,7 @@
       <c r="E2" t="s">
         <v>496</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="10" t="s">
         <v>497</v>
       </c>
       <c r="H2" t="s">
@@ -18798,7 +18805,7 @@
       <c r="E3" t="s">
         <v>506</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>507</v>
       </c>
       <c r="G3" t="s">
@@ -18836,7 +18843,7 @@
       <c r="E4" t="s">
         <v>517</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>518</v>
       </c>
       <c r="G4" t="s">
@@ -18874,7 +18881,7 @@
       <c r="E5" t="s">
         <v>528</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>529</v>
       </c>
       <c r="G5" t="s">
@@ -18912,7 +18919,7 @@
       <c r="E6" t="s">
         <v>538</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
         <v>539</v>
       </c>
       <c r="G6" t="s">
@@ -18950,7 +18957,7 @@
       <c r="E7" t="s">
         <v>548</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>549</v>
       </c>
       <c r="G7" t="s">
@@ -18988,7 +18995,7 @@
       <c r="E8" t="s">
         <v>558</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="10" t="s">
         <v>559</v>
       </c>
       <c r="G8" t="s">
@@ -19026,7 +19033,7 @@
       <c r="E9" t="s">
         <v>568</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="10" t="s">
         <v>569</v>
       </c>
       <c r="H9" t="s">
@@ -19061,7 +19068,7 @@
       <c r="E10" t="s">
         <v>578</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>579</v>
       </c>
       <c r="G10" t="s">
@@ -19099,7 +19106,7 @@
       <c r="E11" t="s">
         <v>589</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>590</v>
       </c>
       <c r="G11" t="s">
@@ -19134,10 +19141,10 @@
       <c r="D12" t="s">
         <v>598</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>599</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="10" t="s">
         <v>600</v>
       </c>
       <c r="H12" t="s">
@@ -19172,7 +19179,7 @@
       <c r="E13" t="s">
         <v>653</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>654</v>
       </c>
       <c r="G13" t="s">
@@ -19210,7 +19217,7 @@
       <c r="E14" t="s">
         <v>663</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="10" t="s">
         <v>664</v>
       </c>
       <c r="H14" t="s">
@@ -19245,7 +19252,7 @@
       <c r="E15" t="s">
         <v>673</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="10" t="s">
         <v>674</v>
       </c>
       <c r="G15" t="s">
@@ -19283,7 +19290,7 @@
       <c r="E16" t="s">
         <v>683</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="10" t="s">
         <v>684</v>
       </c>
       <c r="G16" t="s">
@@ -19321,7 +19328,7 @@
       <c r="E17" t="s">
         <v>1297</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="10" t="s">
         <v>695</v>
       </c>
       <c r="G17" t="s">
@@ -19359,7 +19366,7 @@
       <c r="E18" t="s">
         <v>704</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="10" t="s">
         <v>1298</v>
       </c>
       <c r="G18" t="s">
@@ -19397,7 +19404,7 @@
       <c r="E19" t="s">
         <v>715</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="10" t="s">
         <v>716</v>
       </c>
       <c r="G19" t="s">
@@ -19435,7 +19442,7 @@
       <c r="E20" t="s">
         <v>726</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="10" t="s">
         <v>727</v>
       </c>
       <c r="G20" t="s">
@@ -19473,7 +19480,7 @@
       <c r="E21" t="s">
         <v>734</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="10" t="s">
         <v>735</v>
       </c>
       <c r="H21" t="s">
@@ -19508,7 +19515,7 @@
       <c r="E22" t="s">
         <v>744</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="10" t="s">
         <v>745</v>
       </c>
       <c r="G22" t="s">
@@ -19546,7 +19553,7 @@
       <c r="E23" t="s">
         <v>755</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="10" t="s">
         <v>756</v>
       </c>
       <c r="G23" t="s">
@@ -19581,10 +19588,10 @@
       <c r="D24" t="s">
         <v>765</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>766</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H24" t="s">
@@ -19619,7 +19626,7 @@
       <c r="E25" t="s">
         <v>820</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="10" t="s">
         <v>821</v>
       </c>
       <c r="G25" t="s">
@@ -19657,7 +19664,7 @@
       <c r="E26" t="s">
         <v>827</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H26" t="s">
@@ -19692,7 +19699,7 @@
       <c r="E27" t="s">
         <v>836</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="10" t="s">
         <v>837</v>
       </c>
       <c r="G27" t="s">
@@ -19730,7 +19737,7 @@
       <c r="E28" t="s">
         <v>1299</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="10" t="s">
         <v>847</v>
       </c>
       <c r="G28" t="s">
@@ -19768,7 +19775,7 @@
       <c r="E29" t="s">
         <v>856</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="10" t="s">
         <v>1300</v>
       </c>
       <c r="G29" t="s">
@@ -19806,7 +19813,7 @@
       <c r="E30" t="s">
         <v>866</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="10" t="s">
         <v>1301</v>
       </c>
       <c r="G30" t="s">
@@ -19844,7 +19851,7 @@
       <c r="E31" t="s">
         <v>876</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="10" t="s">
         <v>877</v>
       </c>
       <c r="G31" t="s">
@@ -19882,7 +19889,7 @@
       <c r="E32" t="s">
         <v>886</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="10" t="s">
         <v>887</v>
       </c>
       <c r="G32" t="s">
@@ -19920,7 +19927,7 @@
       <c r="E33" t="s">
         <v>896</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" s="10" t="s">
         <v>1302</v>
       </c>
       <c r="H33" t="s">
@@ -19955,7 +19962,7 @@
       <c r="E34" t="s">
         <v>1303</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="10" t="s">
         <v>907</v>
       </c>
       <c r="G34" t="s">
@@ -19993,7 +20000,7 @@
       <c r="E35" t="s">
         <v>917</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="10" t="s">
         <v>918</v>
       </c>
       <c r="G35" t="s">
@@ -20028,10 +20035,10 @@
       <c r="D36" t="s">
         <v>926</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>927</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" s="10" t="s">
         <v>928</v>
       </c>
       <c r="H36" t="s">
@@ -20066,7 +20073,7 @@
       <c r="E37" t="s">
         <v>983</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="10" t="s">
         <v>984</v>
       </c>
       <c r="G37" t="s">
@@ -20104,7 +20111,7 @@
       <c r="E38" t="s">
         <v>991</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" s="10" t="s">
         <v>992</v>
       </c>
       <c r="H38" t="s">
@@ -20139,7 +20146,7 @@
       <c r="E39" t="s">
         <v>1001</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="10" t="s">
         <v>1304</v>
       </c>
       <c r="G39" t="s">
@@ -20177,7 +20184,7 @@
       <c r="E40" t="s">
         <v>1305</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="10" t="s">
         <v>1012</v>
       </c>
       <c r="G40" t="s">
@@ -20215,7 +20222,7 @@
       <c r="E41" t="s">
         <v>1022</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="10" t="s">
         <v>1023</v>
       </c>
       <c r="G41" t="s">
@@ -20253,7 +20260,7 @@
       <c r="E42" t="s">
         <v>1033</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="10" t="s">
         <v>1034</v>
       </c>
       <c r="G42" t="s">
@@ -20291,7 +20298,7 @@
       <c r="E43" t="s">
         <v>1042</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="G43" t="s">
@@ -20329,7 +20336,7 @@
       <c r="E44" t="s">
         <v>1049</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="10" t="s">
         <v>1050</v>
       </c>
       <c r="G44" t="s">
@@ -20367,7 +20374,7 @@
       <c r="E45" t="s">
         <v>1056</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" s="10" t="s">
         <v>1057</v>
       </c>
       <c r="H45" t="s">
@@ -20402,7 +20409,7 @@
       <c r="E46" t="s">
         <v>1306</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="10" t="s">
         <v>1064</v>
       </c>
       <c r="G46" t="s">
@@ -20440,7 +20447,7 @@
       <c r="E47" t="s">
         <v>1070</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="10" t="s">
         <v>1071</v>
       </c>
       <c r="G47" t="s">
@@ -20475,10 +20482,10 @@
       <c r="D48" t="s">
         <v>1076</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s">
         <v>1077</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" s="10" t="s">
         <v>1078</v>
       </c>
       <c r="H48" t="s">
@@ -20513,7 +20520,7 @@
       <c r="E49" t="s">
         <v>1129</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="10" t="s">
         <v>1130</v>
       </c>
       <c r="G49" t="s">
@@ -20551,7 +20558,7 @@
       <c r="E50" t="s">
         <v>1136</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" s="10" t="s">
         <v>1137</v>
       </c>
       <c r="H50" t="s">
@@ -20586,7 +20593,7 @@
       <c r="E51" t="s">
         <v>1143</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="10" t="s">
         <v>1144</v>
       </c>
       <c r="G51" t="s">
@@ -20624,7 +20631,7 @@
       <c r="E52" t="s">
         <v>1149</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="10" t="s">
         <v>1150</v>
       </c>
       <c r="G52" t="s">
@@ -20662,7 +20669,7 @@
       <c r="E53" t="s">
         <v>1154</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="10" t="s">
         <v>1155</v>
       </c>
       <c r="G53" t="s">
@@ -20700,7 +20707,7 @@
       <c r="E54" t="s">
         <v>1161</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="10" t="s">
         <v>1162</v>
       </c>
       <c r="G54" t="s">
@@ -20738,7 +20745,7 @@
       <c r="E55" t="s">
         <v>1171</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="10" t="s">
         <v>1172</v>
       </c>
       <c r="G55" t="s">
@@ -20776,7 +20783,7 @@
       <c r="E56" t="s">
         <v>1182</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="10" t="s">
         <v>1183</v>
       </c>
       <c r="G56" t="s">
@@ -20814,7 +20821,7 @@
       <c r="E57" t="s">
         <v>1192</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" s="10" t="s">
         <v>1193</v>
       </c>
       <c r="H57" t="s">
@@ -20849,7 +20856,7 @@
       <c r="E58" t="s">
         <v>1202</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="10" t="s">
         <v>1203</v>
       </c>
       <c r="G58" t="s">
@@ -20887,7 +20894,7 @@
       <c r="E59" t="s">
         <v>1212</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="10" t="s">
         <v>1213</v>
       </c>
       <c r="G59" t="s">
@@ -20922,10 +20929,10 @@
       <c r="D60" t="s">
         <v>1221</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" t="s">
         <v>1222</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" s="10" t="s">
         <v>1223</v>
       </c>
       <c r="H60" t="s">

--- a/input/TableA.xlsx
+++ b/input/TableA.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="12520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25056" windowHeight="12516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5473" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5743" uniqueCount="1317">
   <si>
     <t>Content</t>
   </si>
@@ -3750,180 +3751,30 @@
     <t>0-0-1</t>
   </si>
   <si>
-    <t>0-0-2</t>
-  </si>
-  <si>
-    <t>0-0-3</t>
-  </si>
-  <si>
-    <t>0-0-4</t>
-  </si>
-  <si>
-    <t>0-0-5</t>
-  </si>
-  <si>
-    <t>0-0-6</t>
-  </si>
-  <si>
-    <t>0-0-7</t>
-  </si>
-  <si>
-    <t>0-0-8</t>
-  </si>
-  <si>
-    <t>0-0-9</t>
-  </si>
-  <si>
-    <t>0-0-10</t>
-  </si>
-  <si>
-    <t>0-0-11</t>
-  </si>
-  <si>
     <t>1-0-0</t>
   </si>
   <si>
-    <t>1-0-11</t>
-  </si>
-  <si>
-    <t>2-0-11</t>
-  </si>
-  <si>
-    <t>3-0-11</t>
-  </si>
-  <si>
-    <t>4-0-11</t>
-  </si>
-  <si>
     <t>1-0-1</t>
   </si>
   <si>
-    <t>1-0-2</t>
-  </si>
-  <si>
-    <t>1-0-3</t>
-  </si>
-  <si>
-    <t>1-0-4</t>
-  </si>
-  <si>
-    <t>1-0-5</t>
-  </si>
-  <si>
-    <t>1-0-6</t>
-  </si>
-  <si>
-    <t>1-0-7</t>
-  </si>
-  <si>
-    <t>1-0-8</t>
-  </si>
-  <si>
-    <t>1-0-9</t>
-  </si>
-  <si>
-    <t>1-0-10</t>
-  </si>
-  <si>
     <t>2-0-0</t>
   </si>
   <si>
     <t>2-0-1</t>
   </si>
   <si>
-    <t>2-0-2</t>
-  </si>
-  <si>
-    <t>2-0-3</t>
-  </si>
-  <si>
-    <t>2-0-4</t>
-  </si>
-  <si>
-    <t>2-0-5</t>
-  </si>
-  <si>
-    <t>2-0-6</t>
-  </si>
-  <si>
-    <t>2-0-7</t>
-  </si>
-  <si>
-    <t>2-0-8</t>
-  </si>
-  <si>
-    <t>2-0-9</t>
-  </si>
-  <si>
-    <t>2-0-10</t>
-  </si>
-  <si>
     <t>3-0-0</t>
   </si>
   <si>
     <t>3-0-1</t>
   </si>
   <si>
-    <t>3-0-2</t>
-  </si>
-  <si>
-    <t>3-0-3</t>
-  </si>
-  <si>
-    <t>3-0-4</t>
-  </si>
-  <si>
-    <t>3-0-5</t>
-  </si>
-  <si>
-    <t>3-0-6</t>
-  </si>
-  <si>
-    <t>3-0-7</t>
-  </si>
-  <si>
-    <t>3-0-8</t>
-  </si>
-  <si>
-    <t>3-0-9</t>
-  </si>
-  <si>
-    <t>3-0-10</t>
-  </si>
-  <si>
     <t>4-0-0</t>
   </si>
   <si>
     <t>4-0-1</t>
   </si>
   <si>
-    <t>4-0-2</t>
-  </si>
-  <si>
-    <t>4-0-3</t>
-  </si>
-  <si>
-    <t>4-0-4</t>
-  </si>
-  <si>
-    <t>4-0-5</t>
-  </si>
-  <si>
-    <t>4-0-6</t>
-  </si>
-  <si>
-    <t>4-0-7</t>
-  </si>
-  <si>
-    <t>4-0-8</t>
-  </si>
-  <si>
-    <t>4-0-9</t>
-  </si>
-  <si>
-    <t>4-0-10</t>
-  </si>
-  <si>
     <t xml:space="preserve">?戀愛大學? 2020年【戀愛大學1月份課表特輯】熱烈報名ing! :: 182 :: </t>
   </si>
   <si>
@@ -3952,6 +3803,186 @@
   </si>
   <si>
     <t xml:space="preserve">?戀愛大學? 【不只喝咖啡】2/2(日) （額滿）、4/11 (六) :: 235 :: </t>
+  </si>
+  <si>
+    <t>0-1-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>0-1-1</t>
+  </si>
+  <si>
+    <t>0-1-2</t>
+  </si>
+  <si>
+    <t>0-1-3</t>
+  </si>
+  <si>
+    <t>0-1-4</t>
+  </si>
+  <si>
+    <t>0-1-5</t>
+  </si>
+  <si>
+    <t>0-1-6</t>
+  </si>
+  <si>
+    <t>0-1-7</t>
+  </si>
+  <si>
+    <t>0-1-8</t>
+  </si>
+  <si>
+    <t>0-1-9</t>
+  </si>
+  <si>
+    <t>0-1-10</t>
+  </si>
+  <si>
+    <t>0-1-11</t>
+  </si>
+  <si>
+    <t>1-1-1</t>
+  </si>
+  <si>
+    <t>1-1-2</t>
+  </si>
+  <si>
+    <t>1-1-3</t>
+  </si>
+  <si>
+    <t>1-1-4</t>
+  </si>
+  <si>
+    <t>1-1-5</t>
+  </si>
+  <si>
+    <t>1-1-6</t>
+  </si>
+  <si>
+    <t>1-1-7</t>
+  </si>
+  <si>
+    <t>1-1-8</t>
+  </si>
+  <si>
+    <t>1-1-9</t>
+  </si>
+  <si>
+    <t>1-1-10</t>
+  </si>
+  <si>
+    <t>1-1-11</t>
+  </si>
+  <si>
+    <t>2-1-1</t>
+  </si>
+  <si>
+    <t>2-1-2</t>
+  </si>
+  <si>
+    <t>2-1-3</t>
+  </si>
+  <si>
+    <t>2-1-4</t>
+  </si>
+  <si>
+    <t>2-1-5</t>
+  </si>
+  <si>
+    <t>2-1-6</t>
+  </si>
+  <si>
+    <t>2-1-7</t>
+  </si>
+  <si>
+    <t>2-1-8</t>
+  </si>
+  <si>
+    <t>2-1-9</t>
+  </si>
+  <si>
+    <t>2-1-10</t>
+  </si>
+  <si>
+    <t>2-1-11</t>
+  </si>
+  <si>
+    <t>3-1-1</t>
+  </si>
+  <si>
+    <t>3-1-2</t>
+  </si>
+  <si>
+    <t>3-1-3</t>
+  </si>
+  <si>
+    <t>3-1-4</t>
+  </si>
+  <si>
+    <t>3-1-5</t>
+  </si>
+  <si>
+    <t>3-1-6</t>
+  </si>
+  <si>
+    <t>3-1-7</t>
+  </si>
+  <si>
+    <t>3-1-8</t>
+  </si>
+  <si>
+    <t>3-1-9</t>
+  </si>
+  <si>
+    <t>3-1-10</t>
+  </si>
+  <si>
+    <t>3-1-11</t>
+  </si>
+  <si>
+    <t>4-1-1</t>
+  </si>
+  <si>
+    <t>4-1-2</t>
+  </si>
+  <si>
+    <t>4-1-3</t>
+  </si>
+  <si>
+    <t>4-1-4</t>
+  </si>
+  <si>
+    <t>4-1-5</t>
+  </si>
+  <si>
+    <t>4-1-6</t>
+  </si>
+  <si>
+    <t>4-1-7</t>
+  </si>
+  <si>
+    <t>4-1-8</t>
+  </si>
+  <si>
+    <t>4-1-9</t>
+  </si>
+  <si>
+    <t>4-1-10</t>
+  </si>
+  <si>
+    <t>4-1-11</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4068,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -4322,11 +4353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KY19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="EY7" sqref="EY7"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="13" width="9" style="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
@@ -4336,7 +4367,7 @@
     <col min="161" max="171" width="9" style="5"/>
     <col min="172" max="182" width="9" style="6"/>
     <col min="183" max="183" width="15" style="4" customWidth="1"/>
-    <col min="184" max="189" width="10.3984375" style="4" customWidth="1"/>
+    <col min="184" max="189" width="10.375" style="4" customWidth="1"/>
     <col min="190" max="192" width="10" style="4" customWidth="1"/>
     <col min="193" max="193" width="9" style="4"/>
     <col min="194" max="204" width="9" style="6"/>
@@ -18704,2255 +18735,3106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.8984375" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="10" customWidth="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="B1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="G1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J1" t="s">
-        <v>490</v>
-      </c>
-      <c r="K1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L1" t="s">
-        <v>492</v>
+      <c r="B1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I2" t="s">
-        <v>499</v>
-      </c>
-      <c r="J2" t="s">
-        <v>500</v>
-      </c>
-      <c r="K2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L2" t="s">
-        <v>502</v>
+      <c r="B2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="B3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="G3" t="s">
-        <v>508</v>
-      </c>
-      <c r="H3" t="s">
-        <v>509</v>
-      </c>
-      <c r="I3" t="s">
-        <v>510</v>
-      </c>
-      <c r="J3" t="s">
-        <v>511</v>
-      </c>
-      <c r="K3" t="s">
-        <v>512</v>
-      </c>
-      <c r="L3" t="s">
-        <v>513</v>
+      <c r="B3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="G4" t="s">
-        <v>519</v>
-      </c>
-      <c r="H4" t="s">
-        <v>520</v>
-      </c>
-      <c r="I4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J4" t="s">
-        <v>522</v>
-      </c>
-      <c r="K4" t="s">
-        <v>523</v>
-      </c>
-      <c r="L4" t="s">
-        <v>524</v>
+      <c r="B4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" t="s">
-        <v>528</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>530</v>
-      </c>
-      <c r="I5" t="s">
-        <v>531</v>
-      </c>
-      <c r="J5" t="s">
-        <v>532</v>
-      </c>
-      <c r="K5" t="s">
-        <v>533</v>
-      </c>
-      <c r="L5" t="s">
-        <v>534</v>
+      <c r="B5" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>540</v>
-      </c>
-      <c r="I6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J6" t="s">
-        <v>542</v>
-      </c>
-      <c r="K6" t="s">
-        <v>543</v>
-      </c>
-      <c r="L6" t="s">
-        <v>544</v>
+      <c r="B6" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="B7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" t="s">
-        <v>546</v>
-      </c>
-      <c r="D7" t="s">
-        <v>547</v>
-      </c>
-      <c r="E7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I7" t="s">
-        <v>551</v>
-      </c>
-      <c r="J7" t="s">
-        <v>552</v>
-      </c>
-      <c r="K7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L7" t="s">
-        <v>554</v>
+      <c r="B7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D8" t="s">
-        <v>557</v>
-      </c>
-      <c r="E8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>560</v>
-      </c>
-      <c r="I8" t="s">
-        <v>561</v>
-      </c>
-      <c r="J8" t="s">
-        <v>562</v>
-      </c>
-      <c r="K8" t="s">
-        <v>563</v>
-      </c>
-      <c r="L8" t="s">
-        <v>564</v>
+      <c r="B8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B9" t="s">
-        <v>565</v>
-      </c>
-      <c r="C9" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H9" t="s">
-        <v>570</v>
-      </c>
-      <c r="I9" t="s">
-        <v>571</v>
-      </c>
-      <c r="J9" t="s">
-        <v>572</v>
-      </c>
-      <c r="K9" t="s">
-        <v>573</v>
-      </c>
-      <c r="L9" t="s">
-        <v>574</v>
+      <c r="B9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D10" t="s">
-        <v>577</v>
-      </c>
-      <c r="E10" t="s">
-        <v>578</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="G10" t="s">
-        <v>580</v>
-      </c>
-      <c r="H10" t="s">
-        <v>581</v>
-      </c>
-      <c r="I10" t="s">
-        <v>582</v>
-      </c>
-      <c r="J10" t="s">
-        <v>583</v>
-      </c>
-      <c r="K10" t="s">
-        <v>584</v>
-      </c>
-      <c r="L10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B11" t="s">
-        <v>586</v>
-      </c>
-      <c r="C11" t="s">
-        <v>587</v>
-      </c>
-      <c r="D11" t="s">
-        <v>588</v>
-      </c>
-      <c r="E11" t="s">
-        <v>589</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>591</v>
-      </c>
-      <c r="I11" t="s">
-        <v>592</v>
-      </c>
-      <c r="J11" t="s">
-        <v>593</v>
-      </c>
-      <c r="K11" t="s">
-        <v>594</v>
-      </c>
-      <c r="L11" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B12" t="s">
-        <v>596</v>
-      </c>
-      <c r="C12" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" t="s">
-        <v>598</v>
-      </c>
-      <c r="E12" t="s">
-        <v>599</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="H12" t="s">
-        <v>601</v>
-      </c>
-      <c r="I12" t="s">
-        <v>602</v>
-      </c>
-      <c r="J12" t="s">
-        <v>603</v>
-      </c>
-      <c r="K12" t="s">
-        <v>604</v>
-      </c>
-      <c r="L12" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B13" t="s">
-        <v>650</v>
-      </c>
-      <c r="C13" t="s">
-        <v>651</v>
-      </c>
-      <c r="D13" t="s">
-        <v>652</v>
-      </c>
-      <c r="E13" t="s">
-        <v>653</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>655</v>
-      </c>
-      <c r="I13" t="s">
-        <v>656</v>
-      </c>
-      <c r="J13" t="s">
-        <v>657</v>
-      </c>
-      <c r="K13" t="s">
-        <v>658</v>
-      </c>
-      <c r="L13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>660</v>
-      </c>
-      <c r="C14" t="s">
-        <v>661</v>
-      </c>
-      <c r="D14" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" t="s">
-        <v>663</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="H14" t="s">
-        <v>665</v>
-      </c>
-      <c r="I14" t="s">
-        <v>666</v>
-      </c>
-      <c r="J14" t="s">
-        <v>667</v>
-      </c>
-      <c r="K14" t="s">
-        <v>668</v>
-      </c>
-      <c r="L14" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C15" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" t="s">
-        <v>672</v>
-      </c>
-      <c r="E15" t="s">
-        <v>673</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>675</v>
-      </c>
-      <c r="I15" t="s">
-        <v>676</v>
-      </c>
-      <c r="J15" t="s">
-        <v>677</v>
-      </c>
-      <c r="K15" t="s">
-        <v>678</v>
-      </c>
-      <c r="L15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B16" t="s">
-        <v>680</v>
-      </c>
-      <c r="C16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D16" t="s">
-        <v>682</v>
-      </c>
-      <c r="E16" t="s">
-        <v>683</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="G16" t="s">
-        <v>685</v>
-      </c>
-      <c r="H16" t="s">
-        <v>686</v>
-      </c>
-      <c r="I16" t="s">
-        <v>687</v>
-      </c>
-      <c r="J16" t="s">
-        <v>688</v>
-      </c>
-      <c r="K16" t="s">
-        <v>689</v>
-      </c>
-      <c r="L16" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B17" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17" t="s">
-        <v>692</v>
-      </c>
-      <c r="D17" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>696</v>
-      </c>
-      <c r="I17" t="s">
-        <v>697</v>
-      </c>
-      <c r="J17" t="s">
-        <v>698</v>
-      </c>
-      <c r="K17" t="s">
-        <v>699</v>
-      </c>
-      <c r="L17" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B18" t="s">
-        <v>701</v>
-      </c>
-      <c r="C18" t="s">
-        <v>702</v>
-      </c>
-      <c r="D18" t="s">
-        <v>703</v>
-      </c>
-      <c r="E18" t="s">
-        <v>704</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G18" t="s">
-        <v>706</v>
-      </c>
-      <c r="H18" t="s">
-        <v>707</v>
-      </c>
-      <c r="I18" t="s">
-        <v>708</v>
-      </c>
-      <c r="J18" t="s">
-        <v>709</v>
-      </c>
-      <c r="K18" t="s">
-        <v>710</v>
-      </c>
-      <c r="L18" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B19" t="s">
-        <v>712</v>
-      </c>
-      <c r="C19" t="s">
-        <v>713</v>
-      </c>
-      <c r="D19" t="s">
-        <v>714</v>
-      </c>
-      <c r="E19" t="s">
-        <v>715</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="G19" t="s">
-        <v>717</v>
-      </c>
-      <c r="H19" t="s">
-        <v>718</v>
-      </c>
-      <c r="I19" t="s">
-        <v>719</v>
-      </c>
-      <c r="J19" t="s">
-        <v>720</v>
-      </c>
-      <c r="K19" t="s">
-        <v>721</v>
-      </c>
-      <c r="L19" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B20" t="s">
-        <v>723</v>
-      </c>
-      <c r="C20" t="s">
-        <v>724</v>
-      </c>
-      <c r="D20" t="s">
-        <v>725</v>
-      </c>
-      <c r="E20" t="s">
-        <v>726</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="G20" t="s">
-        <v>728</v>
-      </c>
-      <c r="H20" t="s">
-        <v>729</v>
-      </c>
-      <c r="I20" t="s">
-        <v>561</v>
-      </c>
-      <c r="J20" t="s">
-        <v>730</v>
-      </c>
-      <c r="K20" t="s">
-        <v>563</v>
-      </c>
-      <c r="L20" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B21" t="s">
-        <v>731</v>
-      </c>
-      <c r="C21" t="s">
-        <v>732</v>
-      </c>
-      <c r="D21" t="s">
-        <v>733</v>
-      </c>
-      <c r="E21" t="s">
-        <v>734</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H21" t="s">
-        <v>736</v>
-      </c>
-      <c r="I21" t="s">
-        <v>737</v>
-      </c>
-      <c r="J21" t="s">
-        <v>738</v>
-      </c>
-      <c r="K21" t="s">
-        <v>739</v>
-      </c>
-      <c r="L21" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B22" t="s">
-        <v>741</v>
-      </c>
-      <c r="C22" t="s">
-        <v>742</v>
-      </c>
-      <c r="D22" t="s">
-        <v>743</v>
-      </c>
-      <c r="E22" t="s">
-        <v>744</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="G22" t="s">
-        <v>746</v>
-      </c>
-      <c r="H22" t="s">
-        <v>747</v>
-      </c>
-      <c r="I22" t="s">
-        <v>748</v>
-      </c>
-      <c r="J22" t="s">
-        <v>749</v>
-      </c>
-      <c r="K22" t="s">
-        <v>750</v>
-      </c>
-      <c r="L22" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B23" t="s">
-        <v>752</v>
-      </c>
-      <c r="C23" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" t="s">
-        <v>754</v>
-      </c>
-      <c r="E23" t="s">
-        <v>755</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="G23" t="s">
-        <v>757</v>
-      </c>
-      <c r="H23" t="s">
-        <v>758</v>
-      </c>
-      <c r="I23" t="s">
-        <v>759</v>
-      </c>
-      <c r="J23" t="s">
-        <v>760</v>
-      </c>
-      <c r="K23" t="s">
-        <v>761</v>
-      </c>
-      <c r="L23" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>763</v>
-      </c>
-      <c r="C24" t="s">
-        <v>764</v>
-      </c>
-      <c r="D24" t="s">
-        <v>765</v>
-      </c>
-      <c r="E24" t="s">
-        <v>766</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>767</v>
-      </c>
-      <c r="I24" t="s">
-        <v>768</v>
-      </c>
-      <c r="J24" t="s">
-        <v>769</v>
-      </c>
-      <c r="K24" t="s">
-        <v>770</v>
-      </c>
-      <c r="L24" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B25" t="s">
-        <v>818</v>
-      </c>
-      <c r="C25" t="s">
-        <v>819</v>
-      </c>
-      <c r="D25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E25" t="s">
-        <v>820</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>822</v>
-      </c>
-      <c r="I25" t="s">
-        <v>656</v>
-      </c>
-      <c r="J25" t="s">
-        <v>823</v>
-      </c>
-      <c r="K25" t="s">
-        <v>658</v>
-      </c>
-      <c r="L25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B26" t="s">
-        <v>824</v>
-      </c>
-      <c r="C26" t="s">
-        <v>825</v>
-      </c>
-      <c r="D26" t="s">
-        <v>826</v>
-      </c>
-      <c r="E26" t="s">
-        <v>827</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>828</v>
-      </c>
-      <c r="I26" t="s">
-        <v>829</v>
-      </c>
-      <c r="J26" t="s">
-        <v>830</v>
-      </c>
-      <c r="K26" t="s">
-        <v>831</v>
-      </c>
-      <c r="L26" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B27" t="s">
-        <v>833</v>
-      </c>
-      <c r="C27" t="s">
-        <v>834</v>
-      </c>
-      <c r="D27" t="s">
-        <v>835</v>
-      </c>
-      <c r="E27" t="s">
-        <v>836</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>838</v>
-      </c>
-      <c r="I27" t="s">
-        <v>839</v>
-      </c>
-      <c r="J27" t="s">
-        <v>840</v>
-      </c>
-      <c r="K27" t="s">
-        <v>841</v>
-      </c>
-      <c r="L27" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B28" t="s">
-        <v>843</v>
-      </c>
-      <c r="C28" t="s">
-        <v>844</v>
-      </c>
-      <c r="D28" t="s">
-        <v>845</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1299</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>848</v>
-      </c>
-      <c r="I28" t="s">
-        <v>849</v>
-      </c>
-      <c r="J28" t="s">
-        <v>850</v>
-      </c>
-      <c r="K28" t="s">
-        <v>851</v>
-      </c>
-      <c r="L28" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B29" t="s">
-        <v>853</v>
-      </c>
-      <c r="C29" t="s">
-        <v>854</v>
-      </c>
-      <c r="D29" t="s">
-        <v>855</v>
-      </c>
-      <c r="E29" t="s">
-        <v>856</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>858</v>
-      </c>
-      <c r="I29" t="s">
-        <v>859</v>
-      </c>
-      <c r="J29" t="s">
-        <v>860</v>
-      </c>
-      <c r="K29" t="s">
-        <v>861</v>
-      </c>
-      <c r="L29" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B30" t="s">
-        <v>863</v>
-      </c>
-      <c r="C30" t="s">
-        <v>864</v>
-      </c>
-      <c r="D30" t="s">
-        <v>865</v>
-      </c>
-      <c r="E30" t="s">
-        <v>866</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>868</v>
-      </c>
-      <c r="I30" t="s">
-        <v>869</v>
-      </c>
-      <c r="J30" t="s">
-        <v>870</v>
-      </c>
-      <c r="K30" t="s">
-        <v>871</v>
-      </c>
-      <c r="L30" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B31" t="s">
-        <v>873</v>
-      </c>
-      <c r="C31" t="s">
-        <v>874</v>
-      </c>
-      <c r="D31" t="s">
-        <v>875</v>
-      </c>
-      <c r="E31" t="s">
-        <v>876</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>877</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>878</v>
-      </c>
-      <c r="I31" t="s">
-        <v>879</v>
-      </c>
-      <c r="J31" t="s">
-        <v>880</v>
-      </c>
-      <c r="K31" t="s">
-        <v>881</v>
-      </c>
-      <c r="L31" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B32" t="s">
-        <v>883</v>
-      </c>
-      <c r="C32" t="s">
-        <v>884</v>
-      </c>
-      <c r="D32" t="s">
-        <v>885</v>
-      </c>
-      <c r="E32" t="s">
-        <v>886</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>887</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>888</v>
-      </c>
-      <c r="I32" t="s">
-        <v>889</v>
-      </c>
-      <c r="J32" t="s">
-        <v>890</v>
-      </c>
-      <c r="K32" t="s">
-        <v>891</v>
-      </c>
-      <c r="L32" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B33" t="s">
-        <v>893</v>
-      </c>
-      <c r="C33" t="s">
-        <v>894</v>
-      </c>
-      <c r="D33" t="s">
-        <v>895</v>
-      </c>
-      <c r="E33" t="s">
-        <v>896</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H33" t="s">
-        <v>898</v>
-      </c>
-      <c r="I33" t="s">
-        <v>899</v>
-      </c>
-      <c r="J33" t="s">
-        <v>900</v>
-      </c>
-      <c r="K33" t="s">
-        <v>901</v>
-      </c>
-      <c r="L33" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B34" t="s">
-        <v>903</v>
-      </c>
-      <c r="C34" t="s">
-        <v>904</v>
-      </c>
-      <c r="D34" t="s">
-        <v>905</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>907</v>
-      </c>
-      <c r="G34" t="s">
-        <v>908</v>
-      </c>
-      <c r="H34" t="s">
-        <v>909</v>
-      </c>
-      <c r="I34" t="s">
-        <v>910</v>
-      </c>
-      <c r="J34" t="s">
-        <v>911</v>
-      </c>
-      <c r="K34" t="s">
-        <v>912</v>
-      </c>
-      <c r="L34" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B35" t="s">
-        <v>914</v>
-      </c>
-      <c r="C35" t="s">
-        <v>915</v>
-      </c>
-      <c r="D35" t="s">
-        <v>916</v>
-      </c>
-      <c r="E35" t="s">
-        <v>917</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>919</v>
-      </c>
-      <c r="I35" t="s">
-        <v>920</v>
-      </c>
-      <c r="J35" t="s">
-        <v>921</v>
-      </c>
-      <c r="K35" t="s">
-        <v>922</v>
-      </c>
-      <c r="L35" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B36" t="s">
-        <v>924</v>
-      </c>
-      <c r="C36" t="s">
-        <v>925</v>
-      </c>
-      <c r="D36" t="s">
-        <v>926</v>
-      </c>
-      <c r="E36" t="s">
-        <v>927</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>928</v>
-      </c>
-      <c r="H36" t="s">
-        <v>929</v>
-      </c>
-      <c r="I36" t="s">
-        <v>930</v>
-      </c>
-      <c r="J36" t="s">
-        <v>931</v>
-      </c>
-      <c r="K36" t="s">
-        <v>932</v>
-      </c>
-      <c r="L36" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B37" t="s">
-        <v>980</v>
-      </c>
-      <c r="C37" t="s">
-        <v>981</v>
-      </c>
-      <c r="D37" t="s">
-        <v>982</v>
-      </c>
-      <c r="E37" t="s">
-        <v>983</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>984</v>
-      </c>
-      <c r="G37" t="s">
-        <v>985</v>
-      </c>
-      <c r="H37" t="s">
-        <v>986</v>
-      </c>
-      <c r="I37" t="s">
-        <v>489</v>
-      </c>
-      <c r="J37" t="s">
-        <v>987</v>
-      </c>
-      <c r="K37" t="s">
-        <v>491</v>
-      </c>
-      <c r="L37" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B38" t="s">
-        <v>988</v>
-      </c>
-      <c r="C38" t="s">
-        <v>989</v>
-      </c>
-      <c r="D38" t="s">
-        <v>990</v>
-      </c>
-      <c r="E38" t="s">
-        <v>991</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="H38" t="s">
-        <v>993</v>
-      </c>
-      <c r="I38" t="s">
-        <v>994</v>
-      </c>
-      <c r="J38" t="s">
-        <v>995</v>
-      </c>
-      <c r="K38" t="s">
-        <v>996</v>
-      </c>
-      <c r="L38" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B39" t="s">
-        <v>998</v>
-      </c>
-      <c r="C39" t="s">
-        <v>999</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1016</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1026</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H42" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I42" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K42" t="s">
-        <v>543</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I43" t="s">
-        <v>551</v>
-      </c>
-      <c r="J43" t="s">
-        <v>552</v>
-      </c>
-      <c r="K43" t="s">
-        <v>553</v>
-      </c>
-      <c r="L43" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I44" t="s">
-        <v>561</v>
-      </c>
-      <c r="J44" t="s">
-        <v>730</v>
-      </c>
-      <c r="K44" t="s">
-        <v>563</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H45" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I45" t="s">
-        <v>571</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K45" t="s">
-        <v>573</v>
-      </c>
-      <c r="L45" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I46" t="s">
-        <v>582</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K46" t="s">
-        <v>584</v>
-      </c>
-      <c r="L46" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D47" t="s">
-        <v>588</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I47" t="s">
-        <v>592</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1073</v>
-      </c>
-      <c r="K47" t="s">
-        <v>594</v>
-      </c>
-      <c r="L47" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I48" t="s">
-        <v>602</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K48" t="s">
-        <v>604</v>
-      </c>
-      <c r="L48" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D49" t="s">
-        <v>484</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I49" t="s">
-        <v>656</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1132</v>
-      </c>
-      <c r="K49" t="s">
-        <v>658</v>
-      </c>
-      <c r="L49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I50" t="s">
-        <v>994</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K50" t="s">
-        <v>996</v>
-      </c>
-      <c r="L50" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1146</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L51" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>686</v>
-      </c>
-      <c r="I52" t="s">
-        <v>687</v>
-      </c>
-      <c r="J52" t="s">
-        <v>688</v>
-      </c>
-      <c r="K52" t="s">
-        <v>689</v>
-      </c>
-      <c r="L52" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I53" t="s">
-        <v>697</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1157</v>
-      </c>
-      <c r="K53" t="s">
-        <v>699</v>
-      </c>
-      <c r="L53" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>1162</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I54" t="s">
-        <v>1164</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1165</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1166</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I55" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J55" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1177</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1186</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>1193</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1207</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>1213</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1215</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1216</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L59" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1226</v>
-      </c>
-      <c r="K60" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L60" t="s">
-        <v>1228</v>
+      <c r="B10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="10"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>907</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>